--- a/000.커리큐럼/실시시험일정.xlsx
+++ b/000.커리큐럼/실시시험일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\KITA-FED212\000.커리큐럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -88,9 +88,6 @@
     <t>11월 25일 목요일</t>
   </si>
   <si>
-    <t>12월 13일 월요일</t>
-  </si>
-  <si>
     <t>12월 23일 목요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +104,10 @@
   </si>
   <si>
     <t>실기시험일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 17일 금요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +161,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -319,19 +332,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -350,11 +354,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,10 +667,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,114 +685,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
+      <c r="E4" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
+      <c r="E5" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
+      <c r="E6" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +800,8 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/000.커리큐럼/실시시험일정.xlsx
+++ b/000.커리큐럼/실시시험일정.xlsx
@@ -332,19 +332,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,9 +343,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -369,23 +357,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,7 +661,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -685,113 +673,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="13" t="s">
         <v>17</v>
       </c>
     </row>
